--- a/medicine/Hématologie/Mycosis_fongoïde/Mycosis_fongoïde.xlsx
+++ b/medicine/Hématologie/Mycosis_fongoïde/Mycosis_fongoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mycosis fongoïde (mycosis fungoides en anglais) est une hématodermie. Cette affection est une maladie du sang et de la peau. Elle se caractérise par une multiplication d’une variété de globules blancs, les lymphocytes, dans la peau.
 Le mycosis fongoïde est également appelé lymphome cutané primitif à cellules T ou maladie d'Alibert en raison de sa description par le dermatologue français Jean-Louis Alibert en 1832 et fondateur de la dermatologie française.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mycosis fongoïde est une hémopathie caractérisée par des infiltrats dans la peau de lymphocytes T de petite et moyenne taille à noyaux cérébriformes (en forme de cerveau) appelés cellules de Sézary. Typiquement, cette maladie possède une évolution lente (dite indolente) et chronique passant par des stades d'abord exclusivement cutanés (présence de tâches et plaques sur la peau) et pouvant progresser jusqu'à une forme avancée avec un érythroderme généralisé. Lors des stades avancés, le mycosis fongoïde peut affecter d'autres organes comme les ganglions, le foie, la rate, les poumons et le sang.
-Les autres formes et variants connus du mycosis fongoïde sont le mycosis fongoïde folliculotrope (avec ou sans mucinose), le lymphome pagétoïde et la chalazodermie granulomateuse[1].
+Les autres formes et variants connus du mycosis fongoïde sont le mycosis fongoïde folliculotrope (avec ou sans mucinose), le lymphome pagétoïde et la chalazodermie granulomateuse.
 Le syndrome de Sézary est une variante leucémique du mycosis fongoïde avec une évolution beaucoup plus rapide et agressive.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mycosis fongoïde est le plus commun des lymphomes cutanés primitifs à cellules T et correspond à presque la moitié (44 %) de tous les lymphomes cutanés primaires. Les patients les plus touchés ont un âge médian de 55-60 ans, bien que la maladie ait plus rarement été observée chez des enfants et des adolescents. Le sex-ratio Homme:Femme est de 2:1[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mycosis fongoïde est le plus commun des lymphomes cutanés primitifs à cellules T et correspond à presque la moitié (44 %) de tous les lymphomes cutanés primaires. Les patients les plus touchés ont un âge médian de 55-60 ans, bien que la maladie ait plus rarement été observée chez des enfants et des adolescents. Le sex-ratio Homme:Femme est de 2:1.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,18 +592,12 @@
           <t>Description des symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 2007, l'Organisation européenne pour la recherche et le traitement du cancer (European Organization for Research and Treatment of Cancer, E.O.R.T.C.) et l'International Society for Cutaneous Lymphomas (ISCL) ont établi une classification du mycosis fongoïde passant par quatre phases d'évolution[1],[2].
-Première phase
-Apparition de taches / plaques / papules cutanées, infiltrées ou non, de couleur rouge violacée sur &lt;10 % (stade I-A) ou &gt;10 % (stade I-B) de la surface corporelle. Présence d'un prurit et éruption de boutons suivie de démangeaisons. Les régions touchées sont souvent celles protégées du soleil (c'est-à-dire les zones recouvertes par les vêtements ou situées dans les plis de la peau). Les ganglions ne sont pas cliniquement atteints[1],[3].
-Deuxième phase
-Généralement, la deuxième phase arrive plusieurs années après l'apparition des premiers symptômes. Il y a présence de taches / plaques / papules cutanées, infiltrées ou non, sur &gt;10 % de la surface corporelle, associées à une implication précoce ou non[pas clair] des ganglions lymphatiques avec une augmentation de leur volume (adénopathie périphérique) (stade II-A) ou formation d'une ou plusieurs tumeurs (&gt;1 cm) (stade II-B). Ces tumeurs sont dues à l'accumulation de lymphocytes T dans la peau et peuvent éventuellement s'ulcérer.
-Troisième phase
-À un stade avancé, il y a apparition d'une coloration rougeâtre sur environ 90 % de la surface corporelle et présence de desquamations (érythrodermie), éventuellement associée à une atteinte, précoce ou non, des ganglions lymphatiques. L'atteinte sanguine est absente (stade III-A) ou faible (&lt;5 % de cellules de Sézary circulantes, &lt;1000/µL) (stade III-B).
-Quatrième phase
-À ce stade, présence d'un envahissement sanguin important (&gt;5 % de cellules de Sézary circulantes, &gt;1000/µL) (stade IV-A1), pouvant être associé à une implication importante des ganglions (stade IV-A2), voire une atteinte viscérale (stade IV-B).
-Classification</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2007, l'Organisation européenne pour la recherche et le traitement du cancer (European Organization for Research and Treatment of Cancer, E.O.R.T.C.) et l'International Society for Cutaneous Lymphomas (ISCL) ont établi une classification du mycosis fongoïde passant par quatre phases d'évolution,.
+</t>
         </is>
       </c>
     </row>
@@ -597,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,14 +622,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cytologie</t>
+          <t>Description des symptômes</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mycosis fongoïde transformé
-Le mycosis fongoïde, d’évolution longtemps indolente, peut évoluer vers la forme dite transformée (on parle alors de mycosis fongoïde transformé), définie par la présence de grandes cellules lymphocytes T pouvant exprimer ou non le marqueur CD30.
-La présence de cellules transformées est associée à un mauvais pronostic[4].
+          <t>Première phase</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apparition de taches / plaques / papules cutanées, infiltrées ou non, de couleur rouge violacée sur &lt;10 % (stade I-A) ou &gt;10 % (stade I-B) de la surface corporelle. Présence d'un prurit et éruption de boutons suivie de démangeaisons. Les régions touchées sont souvent celles protégées du soleil (c'est-à-dire les zones recouvertes par les vêtements ou situées dans les plis de la peau). Les ganglions ne sont pas cliniquement atteints,.
 </t>
         </is>
       </c>
@@ -630,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,12 +659,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Immunohistologie</t>
+          <t>Description des symptômes</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le phénotype des lymphocytes tumoraux est typiquement CD2+, CD3+, TCRß+, CD5+, CD4+, CD8-.
+          <t>Deuxième phase</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Généralement, la deuxième phase arrive plusieurs années après l'apparition des premiers symptômes. Il y a présence de taches / plaques / papules cutanées, infiltrées ou non, sur &gt;10 % de la surface corporelle, associées à une implication précoce ou non[pas clair] des ganglions lymphatiques avec une augmentation de leur volume (adénopathie périphérique) (stade II-A) ou formation d'une ou plusieurs tumeurs (&gt;1 cm) (stade II-B). Ces tumeurs sont dues à l'accumulation de lymphocytes T dans la peau et peuvent éventuellement s'ulcérer.
 </t>
         </is>
       </c>
@@ -661,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,12 +696,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
+          <t>Description des symptômes</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le diagnostic du mycosis fongoïde peut être difficile, surtout lors des phases précoces où les symptômes peuvent facilement être confondus avec ceux d'autres dermatoses inflammatoires comme le psoriasis ou l'eczéma[1],[3]. Souvent, plusieurs biopsies cutanées sont nécessaires pour identifier un mycosis fongoïde débutant. Des tests par immunomarquages peuvent être utilisés sur les biopsies pour repérer le mycosis fongoïde en recherchant une expression des marqueurs CD3, CD20, CD8 et CD30. Les biopsies peuvent également être utilisées pour rechercher la présence de cellules de Sézary ou de cellules T transformées[1].
+          <t>Troisième phase</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À un stade avancé, il y a apparition d'une coloration rougeâtre sur environ 90 % de la surface corporelle et présence de desquamations (érythrodermie), éventuellement associée à une atteinte, précoce ou non, des ganglions lymphatiques. L'atteinte sanguine est absente (stade III-A) ou faible (&lt;5 % de cellules de Sézary circulantes, &lt;1000/µL) (stade III-B).
 </t>
         </is>
       </c>
@@ -692,7 +718,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,13 +733,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Traitements</t>
+          <t>Description des symptômes</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les traitements du mycosis fongoïde sont la puvathérapie (exposition aux rayonnements ultraviolets en cabine), l'application locale de méthotrexate mélangé à de l'eau, la chimiothérapie et la radiothérapie pour les cas les plus graves.
-Le Valchlor (chlorméthine) en applications topiques bénéficie d'une AMM aux États-Unis et d'une autorisation temporaire d'utilisation en France[5].
+          <t>Quatrième phase</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À ce stade, présence d'un envahissement sanguin important (&gt;5 % de cellules de Sézary circulantes, &gt;1000/µL) (stade IV-A1), pouvant être associé à une implication importante des ganglions (stade IV-A2), voire une atteinte viscérale (stade IV-B).
 </t>
         </is>
       </c>
@@ -724,7 +755,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,12 +770,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Histoire</t>
+          <t>Cytologie</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le mycosis fongoïde a été décrit pour la première fois en 1806 par le dermatologue français Jean-Louis Alibert sous le nom de « Pian fongoïde » (Framboesla mycoides). Le terme « fongoïde » fut utilisé par Alibert en raison de la ressemblance visuelle des tumeurs identifiées avec la texture des champignons[6].
+          <t>Mycosis fongoïde transformé</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mycosis fongoïde, d’évolution longtemps indolente, peut évoluer vers la forme dite transformée (on parle alors de mycosis fongoïde transformé), définie par la présence de grandes cellules lymphocytes T pouvant exprimer ou non le marqueur CD30.
+La présence de cellules transformées est associée à un mauvais pronostic.
 </t>
         </is>
       </c>
@@ -755,7 +793,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mycosis_fongo%C3%AFde</t>
+          <t>Mycosis_fongoïde</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -770,12 +808,147 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Immunohistologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le phénotype des lymphocytes tumoraux est typiquement CD2+, CD3+, TCRß+, CD5+, CD4+, CD8-.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mycosis_fongoïde</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycosis_fongo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic du mycosis fongoïde peut être difficile, surtout lors des phases précoces où les symptômes peuvent facilement être confondus avec ceux d'autres dermatoses inflammatoires comme le psoriasis ou l'eczéma,. Souvent, plusieurs biopsies cutanées sont nécessaires pour identifier un mycosis fongoïde débutant. Des tests par immunomarquages peuvent être utilisés sur les biopsies pour repérer le mycosis fongoïde en recherchant une expression des marqueurs CD3, CD20, CD8 et CD30. Les biopsies peuvent également être utilisées pour rechercher la présence de cellules de Sézary ou de cellules T transformées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mycosis_fongoïde</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycosis_fongo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Traitements</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les traitements du mycosis fongoïde sont la puvathérapie (exposition aux rayonnements ultraviolets en cabine), l'application locale de méthotrexate mélangé à de l'eau, la chimiothérapie et la radiothérapie pour les cas les plus graves.
+Le Valchlor (chlorméthine) en applications topiques bénéficie d'une AMM aux États-Unis et d'une autorisation temporaire d'utilisation en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mycosis_fongoïde</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycosis_fongo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mycosis fongoïde a été décrit pour la première fois en 1806 par le dermatologue français Jean-Louis Alibert sous le nom de « Pian fongoïde » (Framboesla mycoides). Le terme « fongoïde » fut utilisé par Alibert en raison de la ressemblance visuelle des tumeurs identifiées avec la texture des champignons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mycosis_fongoïde</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mycosis_fongo%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Cas célèbres</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acteur Mr. T s'est fait diagnostiquer en 1995 un lymphome cutané à cellules T ou mycosis fongoïde[7]. Une fois en rémission, il a plaisanté au sujet de cette coïncidence en disant : « Imaginez donc ça, un cancer à mon nom — un cancer personnalisé ! »[8].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acteur Mr. T s'est fait diagnostiquer en 1995 un lymphome cutané à cellules T ou mycosis fongoïde. Une fois en rémission, il a plaisanté au sujet de cette coïncidence en disant : « Imaginez donc ça, un cancer à mon nom — un cancer personnalisé ! ».
 </t>
         </is>
       </c>
